--- a/ConceptMap-R5-deviceusage-status-for-R4-device-statement-status.xlsx
+++ b/ConceptMap-R5-deviceusage-status-for-R4-device-statement-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:23.9496014-06:00</t>
+    <t>2026-02-09T22:05:37.2606356-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ConceptMap-R5-deviceusage-status-for-R4-device-statement-status.xlsx
+++ b/ConceptMap-R5-deviceusage-status-for-R4-device-statement-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:37.2606356-06:00</t>
+    <t>2026-02-17T14:42:22.6633381-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
